--- a/data/trans_dic/P08_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P08_2_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0137668480871884</v>
+        <v>0.01380125976034161</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008905729359139103</v>
+        <v>0.009616713588044626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002320809663448853</v>
+        <v>0.002319792743309527</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01441044330600868</v>
+        <v>0.01504060309600636</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02061098238633996</v>
+        <v>0.02085289822083423</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01955660575179941</v>
+        <v>0.0196630971886196</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01015736401006012</v>
+        <v>0.009655096410295867</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01704231122732901</v>
+        <v>0.01698878564234967</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01796078674982211</v>
+        <v>0.01769257052224861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01269005950053051</v>
+        <v>0.01290352434211722</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.008570629841904608</v>
+        <v>0.008009035712136452</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04200120498924708</v>
+        <v>0.04083310544070655</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03534541807647398</v>
+        <v>0.03419895512701798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02366320278499571</v>
+        <v>0.02349946887436048</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04330781710287507</v>
+        <v>0.04794179452400157</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04469310229560377</v>
+        <v>0.04436572801976288</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05669767132033199</v>
+        <v>0.05896045939525856</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05994554127023826</v>
+        <v>0.05632488486198107</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06162226233342186</v>
+        <v>0.0572387391163971</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03678613162993494</v>
+        <v>0.03722478576695912</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03993527763033752</v>
+        <v>0.04165110182696444</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03303874581884444</v>
+        <v>0.03372743150723961</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03913680120529568</v>
+        <v>0.03691822379756854</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01893266181414141</v>
+        <v>0.01797637414022605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02526588003031698</v>
+        <v>0.02457573470410777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01631806137021646</v>
+        <v>0.01662872403224618</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01784681673722847</v>
+        <v>0.01726468390826311</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04053332312819995</v>
+        <v>0.04071777292093021</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02844556059637297</v>
+        <v>0.02881372622571312</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02678104670922013</v>
+        <v>0.02732908779051</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00674416062996855</v>
+        <v>0.007227732381348696</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03228434261295563</v>
+        <v>0.03195316374454063</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03069792974281081</v>
+        <v>0.03163853276233104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02649382236137963</v>
+        <v>0.02579946438335088</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01396615646297748</v>
+        <v>0.01445005789912597</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04718317913859875</v>
+        <v>0.0466802238099178</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05607045962941139</v>
+        <v>0.05605407678484154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04546227851484386</v>
+        <v>0.04463416015138434</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05865795455069867</v>
+        <v>0.05613976695312158</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08021927609384447</v>
+        <v>0.07884335324414572</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06393912453197374</v>
+        <v>0.06584833508923855</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06256902100180679</v>
+        <v>0.06147772705433359</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02867113308489582</v>
+        <v>0.02706974694301257</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05486140078973981</v>
+        <v>0.05522853659322088</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05288592776165068</v>
+        <v>0.05412556422397235</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0498246246229146</v>
+        <v>0.04897093009458637</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03693128950827722</v>
+        <v>0.03660066697067476</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03384844076319139</v>
+        <v>0.03443193391400335</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04158448967821671</v>
+        <v>0.04063448458329814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03693686827279896</v>
+        <v>0.03754183110332361</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03269910752649013</v>
+        <v>0.03446727771517174</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05535828021817739</v>
+        <v>0.05393159651288373</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08549792167372178</v>
+        <v>0.08513809457624606</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05565164946881691</v>
+        <v>0.05425491362615394</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05650680424553865</v>
+        <v>0.05571175710086207</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04920950513903793</v>
+        <v>0.05001897233049567</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06860717883827724</v>
+        <v>0.0680446355789571</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05074590217445017</v>
+        <v>0.0500200004067199</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04949102773733462</v>
+        <v>0.04873604869392636</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06811732656790098</v>
+        <v>0.06844128323018996</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07796874716079429</v>
+        <v>0.0770855991962484</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07263436831081142</v>
+        <v>0.07266327129634029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06885478499572244</v>
+        <v>0.07095693241503943</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09714138538038262</v>
+        <v>0.09491167743340266</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1330555255220327</v>
+        <v>0.1316958312843917</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09545014689810348</v>
+        <v>0.09397705691583054</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08989688561829037</v>
+        <v>0.09042912294956415</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07532096967510268</v>
+        <v>0.07546982806023957</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09730925594441717</v>
+        <v>0.09973989374276622</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07750089800670042</v>
+        <v>0.07849769497849522</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07430672155268452</v>
+        <v>0.07365331274463305</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1336234749213144</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1184854339702813</v>
+        <v>0.1184854339702814</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0750921711606804</v>
+        <v>0.07260272688025252</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08323201110970849</v>
+        <v>0.0839737649536879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09345052439712363</v>
+        <v>0.09762376761738256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09041015639734604</v>
+        <v>0.08914082540376321</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1318264946764121</v>
+        <v>0.129469188477487</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1385085901300855</v>
+        <v>0.1364287708158737</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1216623381310322</v>
+        <v>0.118662621470781</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1053241888848666</v>
+        <v>0.104348006731117</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1089227326338198</v>
+        <v>0.1082217198463364</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1174977181155746</v>
+        <v>0.1161727176795051</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1130979476198052</v>
+        <v>0.1149679052093005</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1040133257938126</v>
+        <v>0.1035351241178247</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1274006794340416</v>
+        <v>0.125575048764504</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1376936236539348</v>
+        <v>0.1350782736217077</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1493763987424356</v>
+        <v>0.1505973352365685</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1400754217380706</v>
+        <v>0.140469250680517</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1960268275392652</v>
+        <v>0.1937390144293976</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2015349375644062</v>
+        <v>0.2041200345681818</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1776079273107215</v>
+        <v>0.1767925306226203</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1449912971942337</v>
+        <v>0.1409917804566523</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1513010394940239</v>
+        <v>0.149164466922827</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1601848678899947</v>
+        <v>0.1583222643417536</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1536555593003926</v>
+        <v>0.1558419685182912</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1360531173573512</v>
+        <v>0.1360493126374605</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2026520745160955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2071047862365046</v>
+        <v>0.2071047862365045</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3087254279649581</v>
@@ -1229,7 +1229,7 @@
         <v>0.3194476410573834</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2573131824799746</v>
+        <v>0.2573131824799747</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2788436429138709</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2074971685027308</v>
+        <v>0.2007892432921431</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1652685168774629</v>
+        <v>0.1674782670581518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1661906785845084</v>
+        <v>0.1609011778773859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1782976622550515</v>
+        <v>0.1780922641494676</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2675629001617741</v>
+        <v>0.2655169385180031</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3186232757916972</v>
+        <v>0.3174374954729832</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2730892315794192</v>
+        <v>0.2772252626452009</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2320783313398356</v>
+        <v>0.2309555429007886</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.250003832378783</v>
+        <v>0.2484364811001784</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2545638903140747</v>
+        <v>0.2530587095013014</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2340893686855356</v>
+        <v>0.233056843562416</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2109051536469268</v>
+        <v>0.2092844018812332</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2945280888502027</v>
+        <v>0.28782486912067</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2464613252308167</v>
+        <v>0.2489404305706064</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2473046752647982</v>
+        <v>0.2437727581846769</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2433282197355476</v>
+        <v>0.2420738452298141</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3598855466605617</v>
+        <v>0.3582250071445781</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4143842630416082</v>
+        <v>0.4129400163919898</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3620652776749145</v>
+        <v>0.3685590062167516</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2863227958364227</v>
+        <v>0.2878512310610891</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3103067564136104</v>
+        <v>0.3121986298710903</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3176367057991705</v>
+        <v>0.3178904750312789</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.295605434073329</v>
+        <v>0.2947962398452423</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2559745317063999</v>
+        <v>0.25270495305005</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4787562008231651</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4124860870663012</v>
+        <v>0.4124860870663011</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4900975515824507</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2917134312059991</v>
+        <v>0.2966092819210462</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3534733087941906</v>
+        <v>0.3616996167106361</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2906427092430713</v>
+        <v>0.293881546279339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2195281036075226</v>
+        <v>0.2204810812634282</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5613699223608712</v>
+        <v>0.5566705067057722</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5372791065941356</v>
+        <v>0.5334198086961545</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4279406634474728</v>
+        <v>0.4313189674580798</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3749238463066487</v>
+        <v>0.3767284604677991</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4478454297046368</v>
+        <v>0.4496384863854221</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4634534975078163</v>
+        <v>0.4687284108436451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3775124173859165</v>
+        <v>0.3792049983884126</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3112288156050916</v>
+        <v>0.3122988072711123</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3972893932822371</v>
+        <v>0.3978306114185397</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4746707192201198</v>
+        <v>0.4770687788739076</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3944046209718712</v>
+        <v>0.3949494138682614</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2909666815256388</v>
+        <v>0.2952588575448193</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6613690883253726</v>
+        <v>0.6626174410052685</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6458331136937854</v>
+        <v>0.6412153526003537</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5307938451615725</v>
+        <v>0.5298197441988806</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4456764686736927</v>
+        <v>0.4443974845446976</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5265103258656754</v>
+        <v>0.5267952501132541</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5477679673211638</v>
+        <v>0.549597281955297</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4541597672520218</v>
+        <v>0.4490027594535309</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3613135402275778</v>
+        <v>0.3619531177787422</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.5741806074574568</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5442220559774942</v>
+        <v>0.5442220559774941</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.8049299224203466</v>
@@ -1513,7 +1513,7 @@
         <v>0.6616303014876641</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6826980905925844</v>
+        <v>0.6826980905925842</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6050031314018537</v>
+        <v>0.6138961694556014</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6392202744553862</v>
+        <v>0.6476497978241033</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5118937875333622</v>
+        <v>0.5127628528037749</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4997208662991069</v>
+        <v>0.4936861856845287</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7499004319114069</v>
+        <v>0.7527721547637947</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7934048380723917</v>
+        <v>0.7915469716792776</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6649253361890399</v>
+        <v>0.665678163471535</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7458189880664343</v>
+        <v>0.7443384376228189</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7192543513382657</v>
+        <v>0.7186205038644776</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7467448737059135</v>
+        <v>0.7480873078555933</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.620122604629405</v>
+        <v>0.6248097543971697</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6553910678907463</v>
+        <v>0.6543422696795235</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7378958349826042</v>
+        <v>0.73517108440697</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7625612201630435</v>
+        <v>0.7680668425665352</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6287173581426569</v>
+        <v>0.6309433508501174</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5921401140837436</v>
+        <v>0.5913077383415322</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.84711362774351</v>
+        <v>0.8481109068392942</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8688477245908257</v>
+        <v>0.8728052147740546</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7627251444335696</v>
+        <v>0.7679741351695594</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8023629048582814</v>
+        <v>0.8021104093474742</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7919428296782657</v>
+        <v>0.7915210085385015</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8170209437030616</v>
+        <v>0.8168588848517609</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6973388993092834</v>
+        <v>0.7027683235341451</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.708758991361792</v>
+        <v>0.7058760451839445</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1273777890994579</v>
+        <v>0.127714919808469</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1438958638040109</v>
+        <v>0.1425515738319594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1338623772085473</v>
+        <v>0.1322966789401519</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1386707976300339</v>
+        <v>0.1379379976156654</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2178241037258363</v>
+        <v>0.2189875611942221</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2433461184239743</v>
+        <v>0.2427851111651073</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2140080886580599</v>
+        <v>0.2135107452097412</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.216272357980869</v>
+        <v>0.2157369491859938</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1776327792959622</v>
+        <v>0.1775911393211849</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1976609759753816</v>
+        <v>0.1976599241916807</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1774476711709526</v>
+        <v>0.1786152372698099</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1820485703612763</v>
+        <v>0.1816274771408682</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1509213567591329</v>
+        <v>0.1524888260898279</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1704702814921175</v>
+        <v>0.1688621731643159</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1572996235297118</v>
+        <v>0.1567460727131439</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1614587830849824</v>
+        <v>0.1622479313802517</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2463302260934824</v>
+        <v>0.2473780541870226</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2734786973106867</v>
+        <v>0.2727064119205808</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2438195875616229</v>
+        <v>0.2436988187748747</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2377961938187506</v>
+        <v>0.239645876074715</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1964319400959227</v>
+        <v>0.1960979880861581</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2177036969496329</v>
+        <v>0.2179966665043616</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1984322196386675</v>
+        <v>0.1966793085768688</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1982049511783559</v>
+        <v>0.1977842460381796</v>
       </c>
     </row>
     <row r="28">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6802</v>
+        <v>6819</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4045</v>
+        <v>4367</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>973</v>
@@ -2023,28 +2023,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6737</v>
+        <v>7031</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8867</v>
+        <v>8972</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7740</v>
+        <v>7782</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3682</v>
+        <v>3500</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16387</v>
+        <v>16336</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15884</v>
+        <v>15647</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10345</v>
+        <v>10519</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6602</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20751</v>
+        <v>20174</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16052</v>
+        <v>15531</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9926</v>
+        <v>9857</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17661</v>
+        <v>19550</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20894</v>
+        <v>20740</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24393</v>
+        <v>25367</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23724</v>
+        <v>22291</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22339</v>
+        <v>20750</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>35372</v>
+        <v>35794</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>35318</v>
+        <v>36835</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26934</v>
+        <v>27495</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>30147</v>
+        <v>28438</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13925</v>
+        <v>13221</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17360</v>
+        <v>16886</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9636</v>
+        <v>9819</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8511</v>
+        <v>8233</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>25353</v>
+        <v>25469</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17359</v>
+        <v>17584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15092</v>
+        <v>15401</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3384</v>
+        <v>3626</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>43938</v>
+        <v>43488</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>39826</v>
+        <v>41046</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>30575</v>
+        <v>29774</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13668</v>
+        <v>14141</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>34703</v>
+        <v>34333</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38525</v>
+        <v>38514</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>26845</v>
+        <v>26356</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27973</v>
+        <v>26772</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>50177</v>
+        <v>49316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39019</v>
+        <v>40184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>35260</v>
+        <v>34645</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14385</v>
+        <v>13582</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>74665</v>
+        <v>75165</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>68611</v>
+        <v>70219</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>57500</v>
+        <v>56514</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36142</v>
+        <v>35818</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21618</v>
+        <v>21991</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28276</v>
+        <v>27630</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24714</v>
+        <v>25119</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20301</v>
+        <v>21399</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38183</v>
+        <v>37199</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>60776</v>
+        <v>60520</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>36807</v>
+        <v>35883</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35179</v>
+        <v>34684</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>65370</v>
+        <v>66446</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>95419</v>
+        <v>94637</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>67517</v>
+        <v>66551</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>61537</v>
+        <v>60598</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43504</v>
+        <v>43711</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>53015</v>
+        <v>52415</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48599</v>
+        <v>48619</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42748</v>
+        <v>44053</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>67003</v>
+        <v>65465</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>94583</v>
+        <v>93616</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>63129</v>
+        <v>62155</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55966</v>
+        <v>56297</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>100057</v>
+        <v>100255</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>135338</v>
+        <v>138719</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>103114</v>
+        <v>104440</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>92392</v>
+        <v>91580</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38984</v>
+        <v>37691</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51156</v>
+        <v>51612</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>60374</v>
+        <v>63070</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>63343</v>
+        <v>62454</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>67975</v>
+        <v>66760</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>85349</v>
+        <v>84067</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>78968</v>
+        <v>77021</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>77612</v>
+        <v>76893</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>112712</v>
+        <v>111987</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>144618</v>
+        <v>142987</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>146476</v>
+        <v>148898</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>149520</v>
+        <v>148832</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>66140</v>
+        <v>65192</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>84629</v>
+        <v>83021</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>96504</v>
+        <v>97293</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>98139</v>
+        <v>98415</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>101080</v>
+        <v>99900</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>124186</v>
+        <v>125779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>115281</v>
+        <v>114752</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>106842</v>
+        <v>103895</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>156565</v>
+        <v>154354</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>197158</v>
+        <v>194866</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>199003</v>
+        <v>201835</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>195577</v>
+        <v>195571</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>80241</v>
+        <v>77647</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>70638</v>
+        <v>71582</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>79426</v>
+        <v>76898</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>108645</v>
+        <v>108520</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>108092</v>
+        <v>107265</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>142680</v>
+        <v>142149</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>135684</v>
+        <v>137739</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>141302</v>
+        <v>140618</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>197677</v>
+        <v>196438</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>222797</v>
+        <v>221480</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>228183</v>
+        <v>227176</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>256925</v>
+        <v>254951</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>113897</v>
+        <v>111305</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>105341</v>
+        <v>106400</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>118191</v>
+        <v>116503</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>148271</v>
+        <v>147507</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>145389</v>
+        <v>144718</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>185561</v>
+        <v>184915</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>179892</v>
+        <v>183118</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>174329</v>
+        <v>175260</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>245358</v>
+        <v>246854</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>277999</v>
+        <v>278222</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>288146</v>
+        <v>287358</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>311829</v>
+        <v>307846</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>85350</v>
+        <v>86783</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>109501</v>
+        <v>112049</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>97171</v>
+        <v>98253</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>89173</v>
+        <v>89561</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>192513</v>
+        <v>190901</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>190195</v>
+        <v>188828</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>161660</v>
+        <v>162936</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>164654</v>
+        <v>165446</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>284613</v>
+        <v>285753</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>307632</v>
+        <v>311133</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>268824</v>
+        <v>270029</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>263104</v>
+        <v>264009</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>116240</v>
+        <v>116398</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>147046</v>
+        <v>147789</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>131861</v>
+        <v>132043</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>118192</v>
+        <v>119936</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>226806</v>
+        <v>227234</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>228622</v>
+        <v>226988</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>200514</v>
+        <v>200146</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>195726</v>
+        <v>195164</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>334606</v>
+        <v>334787</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>363599</v>
+        <v>364813</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>323404</v>
+        <v>319731</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>305444</v>
+        <v>305985</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>126980</v>
+        <v>128846</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>159710</v>
+        <v>161816</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>131556</v>
+        <v>131779</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>155012</v>
+        <v>153140</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>250398</v>
+        <v>251357</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>307755</v>
+        <v>307035</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>266083</v>
+        <v>266384</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>346085</v>
+        <v>345398</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>391124</v>
+        <v>390779</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>476231</v>
+        <v>477087</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>407524</v>
+        <v>410604</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>507424</v>
+        <v>506612</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>154872</v>
+        <v>154300</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>190527</v>
+        <v>191902</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>161579</v>
+        <v>162151</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>183681</v>
+        <v>183422</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>282858</v>
+        <v>283191</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>337019</v>
+        <v>338554</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>305219</v>
+        <v>307319</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>372323</v>
+        <v>372206</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>430651</v>
+        <v>430422</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>521049</v>
+        <v>520946</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>458268</v>
+        <v>461836</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>548743</v>
+        <v>546511</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>417359</v>
+        <v>418463</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>492535</v>
+        <v>487934</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>454376</v>
+        <v>449061</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>489770</v>
+        <v>487182</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>736071</v>
+        <v>740002</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>865636</v>
+        <v>863641</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>758561</v>
+        <v>756798</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>807938</v>
+        <v>805938</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1182278</v>
+        <v>1182001</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1379689</v>
+        <v>1379682</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1231290</v>
+        <v>1239392</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1323061</v>
+        <v>1320001</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>494500</v>
+        <v>499636</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>583496</v>
+        <v>577991</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>533930</v>
+        <v>532051</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>570254</v>
+        <v>573042</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>832398</v>
+        <v>835939</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>972824</v>
+        <v>970077</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>864229</v>
+        <v>863801</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>888345</v>
+        <v>895255</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1307400</v>
+        <v>1305177</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1519589</v>
+        <v>1521634</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1376900</v>
+        <v>1364736</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1440480</v>
+        <v>1437423</v>
       </c>
     </row>
     <row r="36">
